--- a/upload/13.xlsx
+++ b/upload/13.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C2552-379D-4892-ADD3-28354C77A290}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AD4CDD-058F-4D52-AFE0-17844D7F0F26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="209">
   <si>
     <t>ජනාධිපති කාර්යාලයේ රාජකාරි සිදුකරන පුද්ගලයින්ගේ තොරතුරු යාවත්කාලීන කිරීම</t>
   </si>
@@ -155,9 +155,6 @@
     <t>865371802V</t>
   </si>
   <si>
-    <t>මහත්මිය</t>
-  </si>
-  <si>
     <t>හල්හප්පෙරුමගේ චාමරී මිහිරංගනී ෆොන්සේකා</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
   </si>
   <si>
     <t>ෆොන්සේකා</t>
-  </si>
-  <si>
-    <t>ක්‍රිස්තියානි</t>
   </si>
   <si>
     <t>මෙනවිය</t>
@@ -710,6 +704,9 @@
   </si>
   <si>
     <t>වර්ථමාන තත්වය</t>
+  </si>
+  <si>
+    <t>ETH1</t>
   </si>
 </sst>
 </file>
@@ -953,15 +950,6 @@
   </cellStyleXfs>
   <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1008,13 +996,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1062,15 +1044,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1108,12 +1081,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1171,9 +1138,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1225,9 +1189,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1255,9 +1216,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1367,6 +1325,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1697,216 +1694,219 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
     </row>
     <row r="2" spans="1:22" ht="21.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" ht="138">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="141"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" s="7" customFormat="1" ht="107.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="11"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:22" ht="75">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>106</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="12">
+        <v>21697</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2</v>
+      </c>
+      <c r="M4" s="12">
+        <v>31211</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="O4" s="13">
+        <v>1</v>
+      </c>
+      <c r="R4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="S4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="120">
+      <c r="A5" s="9">
+        <v>1562</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <v>5099109</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="12">
+        <v>31449</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2</v>
+      </c>
+      <c r="M5" s="12">
+        <v>41288</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="O5" s="13">
+        <v>4</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="15">
-        <v>21697</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="15">
-        <v>31211</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="135">
-      <c r="A5" s="12">
-        <v>1562</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12">
-        <v>5099109</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="15">
-        <v>31449</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="15">
-        <v>41288</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="16" t="s">
+      <c r="T5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="U5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="S5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="17" t="s">
+      <c r="V5" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="U5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="18" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1932,73 +1932,73 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-    </row>
-    <row r="2" spans="1:13" s="23" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+    </row>
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A2" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="147"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+    </row>
+    <row r="3" spans="1:13" s="18" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-    </row>
-    <row r="3" spans="1:13" s="23" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="D3" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="129" customFormat="1">
-      <c r="A4" s="126" t="str">
+    </row>
+    <row r="4" spans="1:13" s="116" customFormat="1">
+      <c r="A4" s="113" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B4</f>
         <v>591480316V</v>
       </c>
-      <c r="B4" s="127" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="128">
+      <c r="B4" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="115">
         <v>28521</v>
       </c>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="115" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="129" customFormat="1">
-      <c r="A5" s="126" t="str">
+    <row r="5" spans="1:13" s="116" customFormat="1">
+      <c r="A5" s="113" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B5</f>
         <v>865371802V</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-    </row>
-    <row r="6" spans="1:13" s="129" customFormat="1">
-      <c r="A6" s="132"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+    </row>
+    <row r="6" spans="1:13" s="116" customFormat="1">
+      <c r="A6" s="119"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2020,135 +2020,135 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
     </row>
     <row r="2" spans="1:15" ht="15.75">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="H2" s="123"/>
+    </row>
+    <row r="3" spans="1:15" ht="49.5" customHeight="1">
+      <c r="A3" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="H2" s="136"/>
-    </row>
-    <row r="3" spans="1:15" ht="49.5" customHeight="1">
-      <c r="A3" s="137" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="45" t="s">
+      <c r="E3" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="F3" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="125" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="K3" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="127" t="s">
+        <v>199</v>
+      </c>
+      <c r="M3" s="127" t="s">
+        <v>200</v>
+      </c>
+      <c r="N3" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="I3" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="J3" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="K3" s="139" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="140" t="s">
-        <v>201</v>
-      </c>
-      <c r="M3" s="140" t="s">
-        <v>202</v>
-      </c>
-      <c r="N3" s="140" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="92" t="str">
+      <c r="A4" s="81" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B4</f>
         <v>591480316V</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="92" t="str">
+      <c r="A5" s="81" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B5</f>
         <v>865371802V</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
+      <c r="B5" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="96"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2167,82 +2167,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5537B50A-B2BB-459E-9794-05ABCAA852A7}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" ht="15.75">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="132" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="56"/>
+    </row>
+    <row r="3" spans="1:13" ht="32.25" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="66"/>
-    </row>
-    <row r="3" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="E3" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="146" t="str">
+      <c r="A4" s="133" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B4</f>
         <v>591480316V</v>
       </c>
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="146" t="str">
+      <c r="A5" s="133" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B5</f>
         <v>865371802V</v>
       </c>
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="148"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="150"/>
-      <c r="B6" s="151"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2262,181 +2262,181 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" s="21" customFormat="1">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:16" s="17" customFormat="1">
+      <c r="A1" s="16"/>
+      <c r="B1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-    </row>
-    <row r="2" spans="1:16" s="21" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+    </row>
+    <row r="2" spans="1:16" s="17" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A2" s="143" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="143"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="1:16" s="24" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-    </row>
-    <row r="3" spans="1:16" s="29" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="C3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="F3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="G3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="H3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="I3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="J3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="K3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="L3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="M3" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="N3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="O3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="P3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="26" t="s">
+    </row>
+    <row r="4" spans="1:16" s="27" customFormat="1" ht="90">
+      <c r="A4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="32" customFormat="1" ht="135">
-      <c r="A4" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="E4" s="9">
+        <v>10107</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="12">
-        <v>10107</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="H4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="I4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="K4" s="9">
+        <v>3244</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="O4" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="12">
-        <v>3244</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="P4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="27" customFormat="1" ht="120">
+      <c r="A5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="32" customFormat="1" ht="120">
-      <c r="A5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="E5" s="9">
+        <v>10150</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12" t="s">
+      <c r="H5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="12">
-        <v>10150</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="K5" s="9">
+        <v>3144</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="12">
-        <v>3144</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2463,438 +2463,438 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43" s="36" customFormat="1">
-      <c r="A1" s="33"/>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:43" s="31" customFormat="1">
+      <c r="A1" s="28"/>
+      <c r="B1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AI1" s="37"/>
-      <c r="AK1" s="35"/>
-      <c r="AO1" s="35"/>
-    </row>
-    <row r="2" spans="1:43" s="36" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AI1" s="32"/>
+      <c r="AK1" s="30"/>
+      <c r="AO1" s="30"/>
+    </row>
+    <row r="2" spans="1:43" s="31" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A2" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="18"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="30"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AI2" s="32"/>
+      <c r="AK2" s="30"/>
+      <c r="AO2" s="30"/>
+    </row>
+    <row r="3" spans="1:43" s="31" customFormat="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="144" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="145"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="145"/>
+      <c r="AC3" s="145"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="145"/>
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="145"/>
+      <c r="AJ3" s="145"/>
+      <c r="AK3" s="145"/>
+      <c r="AL3" s="145"/>
+      <c r="AM3" s="145"/>
+      <c r="AN3" s="145"/>
+      <c r="AO3" s="145"/>
+      <c r="AP3" s="145"/>
+      <c r="AQ3" s="146"/>
+    </row>
+    <row r="4" spans="1:43" s="39" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="23"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="35"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AI2" s="37"/>
-      <c r="AK2" s="35"/>
-      <c r="AO2" s="35"/>
-    </row>
-    <row r="3" spans="1:43" s="36" customFormat="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="42" t="s">
+      <c r="C4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="44"/>
-    </row>
-    <row r="4" spans="1:43" s="47" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="D4" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="E4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="F4" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="G4" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="H4" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="I4" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="J4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="K4" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="L4" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="P4" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="Q4" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="P4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="S4" s="26" t="s">
+      <c r="U4" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="T4" s="45" t="s">
+      <c r="V4" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="U4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="V4" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="W4" s="26" t="s">
+      <c r="W4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="X4" s="26" t="s">
+      <c r="Z4" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="Y4" s="45" t="s">
+      <c r="AA4" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="Z4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA4" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB4" s="26" t="s">
+      <c r="AB4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AC4" s="45" t="s">
+      <c r="AD4" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE4" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="AD4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE4" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF4" s="26" t="s">
+      <c r="AF4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AG4" s="45" t="s">
+      <c r="AH4" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI4" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="AH4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI4" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ4" s="26" t="s">
+      <c r="AJ4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AK4" s="45" t="s">
+      <c r="AL4" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM4" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="AL4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM4" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN4" s="26" t="s">
+      <c r="AN4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AO4" s="45" t="s">
+      <c r="AP4" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="AP4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ4" s="46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" ht="135">
-      <c r="A5" s="13" t="str">
+    </row>
+    <row r="5" spans="1:43" ht="90">
+      <c r="A5" s="10" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B4</f>
         <v>591480316V</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="12">
+        <v>23507</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="15">
-        <v>23507</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="H5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="I5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="J5" s="12">
+        <v>31542</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="M5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="15">
-        <v>31542</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="N5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="12">
+        <v>32252</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="12">
+        <v>35125</v>
+      </c>
+      <c r="U5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="15">
-        <v>32252</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" s="15">
-        <v>35125</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
+      <c r="V5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="40"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="40"/>
+      <c r="AQ5" s="40"/>
     </row>
     <row r="6" spans="1:43" ht="120">
-      <c r="A6" s="13" t="str">
+      <c r="A6" s="10" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B5</f>
         <v>865371802V</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="12">
+        <v>31270</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="15">
-        <v>31270</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="50" t="s">
+      <c r="H6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="12">
         <v>42819</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
+      <c r="L6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="40"/>
     </row>
     <row r="7" spans="1:43">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="56"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="55"/>
-      <c r="AO7" s="56"/>
-      <c r="AP7" s="55"/>
-      <c r="AQ7" s="55"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="48"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2907,7 +2907,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A52DD306-39A4-419F-BE4E-9795BEE230F4}">
           <x14:formula1>
-            <xm:f>'[Form_for_hrms_changes (2) Tariff.xlsx]1. පෞද්ගලික තොරතුරු'!#REF!</xm:f>
+            <xm:f>'C:\wamp64314\www\add_employee\upload\[Form_for_hrms_changes (2) Tariff.xlsx]1. පෞද්ගලික තොරතුරු'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>K5:K7 Z5:Z7 AP5:AP7 AL5:AL7 AH5:AH7 AD5:AD7</xm:sqref>
         </x14:dataValidation>
@@ -2928,108 +2928,108 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="148"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+    </row>
+    <row r="3" spans="1:13" s="53" customFormat="1" ht="45">
+      <c r="A3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-    </row>
-    <row r="3" spans="1:13" s="63" customFormat="1" ht="75">
-      <c r="A3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="62" t="s">
+      <c r="D3" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="E3" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="F3" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="G3" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="135">
-      <c r="A4" s="13" t="str">
+    </row>
+    <row r="4" spans="1:13" ht="90">
+      <c r="A4" s="10" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B4</f>
         <v>591480316V</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
-        <v>86</v>
+      <c r="B4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="120">
-      <c r="A5" s="13" t="str">
+      <c r="A5" s="10" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B5</f>
         <v>865371802V</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
-        <v>98</v>
+      <c r="B5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3051,294 +3051,294 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="64"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
+      <c r="A1" s="54"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="64"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="A2" s="54"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:28" ht="22.5" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="147"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="59"/>
+    </row>
+    <row r="4" spans="1:28" s="39" customFormat="1" ht="96.75" customHeight="1">
+      <c r="A4" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="69"/>
-    </row>
-    <row r="4" spans="1:28" s="47" customFormat="1" ht="96.75" customHeight="1">
-      <c r="A4" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="71" t="s">
+      <c r="D4" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="E4" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="F4" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="G4" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="H4" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="I4" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="J4" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="K4" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="L4" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="M4" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="L4" s="71" t="s">
+      <c r="N4" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="M4" s="71" t="s">
+      <c r="O4" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="P4" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="Q4" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="R4" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="S4" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="T4" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="S4" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="T4" s="71" t="s">
-        <v>130</v>
-      </c>
-      <c r="U4" s="29"/>
+      <c r="U4" s="24"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="50" t="str">
+      <c r="A5" s="42" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B4</f>
         <v>591480316V</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="64">
+        <v>43998</v>
+      </c>
+      <c r="E5" s="64">
+        <v>43998</v>
+      </c>
+      <c r="F5" s="64">
+        <v>43998</v>
+      </c>
+      <c r="G5" s="64">
+        <v>43998</v>
+      </c>
+      <c r="H5" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="I5" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="74">
-        <v>43998</v>
-      </c>
-      <c r="E5" s="74">
-        <v>43998</v>
-      </c>
-      <c r="F5" s="74">
-        <v>43998</v>
-      </c>
-      <c r="G5" s="74">
-        <v>43998</v>
-      </c>
-      <c r="H5" s="73" t="s">
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="N5" s="65"/>
+      <c r="O5" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73" t="s">
+      <c r="P5" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="N5" s="75"/>
-      <c r="O5" s="73" t="s">
+      <c r="Q5" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="P5" s="73" t="s">
+      <c r="R5" s="63"/>
+      <c r="S5" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="Q5" s="73" t="s">
+      <c r="T5" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="27"/>
+      <c r="V5" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="R5" s="73"/>
-      <c r="S5" s="76" t="s">
+      <c r="W5" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="T5" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="32"/>
-      <c r="V5" s="63" t="s">
+      <c r="X5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="W5" s="63" t="s">
+      <c r="Z5" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="X5" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y5" s="36" t="s">
+      <c r="AA5" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="Z5" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA5" s="78" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB5" s="36" t="s">
-        <v>132</v>
+      <c r="AB5" s="31" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="50" t="str">
+      <c r="A6" s="42" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B5</f>
         <v>865371802V</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="64">
+        <v>41470</v>
+      </c>
+      <c r="E6" s="64">
+        <v>41470</v>
+      </c>
+      <c r="F6" s="64">
+        <v>43838</v>
+      </c>
+      <c r="G6" s="64">
+        <v>43838</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="M6" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="N6" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P6" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q6" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6" s="63"/>
+      <c r="S6" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="T6" s="67"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="W6" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="X6" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y6" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z6" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA6" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB6" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="74">
-        <v>41470</v>
-      </c>
-      <c r="E6" s="74">
-        <v>41470</v>
-      </c>
-      <c r="F6" s="74">
-        <v>43838</v>
-      </c>
-      <c r="G6" s="74">
-        <v>43838</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="J6" s="73" t="s">
+      <c r="W7" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="M6" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="N6" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="P6" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q6" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="R6" s="73"/>
-      <c r="S6" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="T6" s="77"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="W6" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="X6" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y6" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z6" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA6" s="78" t="s">
+      <c r="X7" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="AB6" s="36" t="s">
+      <c r="Y7" s="31" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="W7" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="X7" s="36" t="s">
+      <c r="Z7" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="Y7" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z7" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA7" s="78" t="s">
-        <v>147</v>
+      <c r="AA7" s="68" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3383,296 +3383,296 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" s="64"/>
-      <c r="B1" s="82" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="V1" s="83"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="V1" s="72"/>
     </row>
     <row r="2" spans="1:37" ht="15.75">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="78"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="V2" s="72"/>
+    </row>
+    <row r="3" spans="1:37" ht="47.25">
+      <c r="A3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="89"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="V2" s="83"/>
-    </row>
-    <row r="3" spans="1:37" ht="75">
-      <c r="A3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="90" t="s">
+      <c r="D3" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="E3" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="F3" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="G3" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="91" t="s">
+      <c r="K3" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="L3" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="M3" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="L3" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="M3" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="N3" s="91" t="s">
+      <c r="N3" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="P3" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="O3" s="91" t="s">
+      <c r="Q3" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="P3" s="91" t="s">
+      <c r="R3" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="Q3" s="90" t="s">
+      <c r="S3" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="R3" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="S3" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="T3" s="91" t="s">
+      <c r="T3" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="U3" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="V3" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="U3" s="90" t="s">
+      <c r="W3" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="V3" s="91" t="s">
+      <c r="X3" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="W3" s="90" t="s">
+      <c r="Y3" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="X3" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y3" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z3" s="90" t="s">
+      <c r="Z3" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA3" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB3" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="AA3" s="90" t="s">
+      <c r="AC3" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="AB3" s="90" t="s">
+      <c r="AD3" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="AC3" s="90" t="s">
+      <c r="AE3" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="AD3" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE3" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF3" s="90" t="s">
+      <c r="AF3" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG3" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH3" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="AG3" s="90" t="s">
+      <c r="AI3" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="AH3" s="90" t="s">
+      <c r="AJ3" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="AI3" s="90" t="s">
+      <c r="AK3" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="AJ3" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK3" s="45" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="4" spans="1:37" ht="15.75">
-      <c r="A4" s="92" t="str">
+      <c r="A4" s="81" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B4</f>
         <v>591480316V</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="95"/>
-      <c r="AH4" s="95"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="94"/>
-    </row>
-    <row r="5" spans="1:37" ht="63">
-      <c r="A5" s="92" t="str">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+    </row>
+    <row r="5" spans="1:37" ht="47.25">
+      <c r="A5" s="81" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B5</f>
         <v>865371802V</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="95">
+      <c r="B5" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="84">
         <v>41470</v>
       </c>
-      <c r="G5" s="95">
+      <c r="G5" s="84">
         <v>43837</v>
       </c>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="95"/>
-      <c r="AH5" s="95"/>
-      <c r="AI5" s="94"/>
-      <c r="AJ5" s="94"/>
-      <c r="AK5" s="94"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="83"/>
+      <c r="AJ5" s="83"/>
+      <c r="AK5" s="83"/>
     </row>
     <row r="6" spans="1:37" ht="15.75">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="98"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="87"/>
+      <c r="AK6" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3693,195 +3693,195 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
     </row>
     <row r="2" spans="1:22" ht="24.75" customHeight="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="93"/>
+      <c r="C2" s="72"/>
+      <c r="I2" s="72"/>
+    </row>
+    <row r="3" spans="1:22" ht="47.25" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="83"/>
-      <c r="I2" s="83"/>
-    </row>
-    <row r="3" spans="1:22" ht="47.25" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="106" t="s">
+      <c r="D3" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="F3" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="G3" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="K3" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="L3" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="M3" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="L3" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="Q3" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="P3" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="T3" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="U3" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="T3" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="45">
-      <c r="A4" s="13" t="str">
+    </row>
+    <row r="4" spans="1:22" ht="30">
+      <c r="A4" s="10" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B4</f>
         <v>591480316V</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="B4" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="95"/>
+      <c r="D4" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="10">
         <v>4</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>1988</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="10">
         <v>1992</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="13"/>
-    </row>
-    <row r="5" spans="1:22" ht="60">
-      <c r="A5" s="13" t="str">
+      <c r="H4" s="96"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="10"/>
+    </row>
+    <row r="5" spans="1:22" ht="45">
+      <c r="A5" s="10" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B5</f>
         <v>865371802V</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="B5" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="10">
         <v>2</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>2015</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <v>2017</v>
       </c>
-      <c r="H5" s="108"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="13"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="51"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="32"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3893,7 +3893,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC706BE0-7BE3-419D-BEDD-73CAE6829C31}">
           <x14:formula1>
-            <xm:f>'[Form_for_hrms_changes (2) Tariff.xlsx]5.රැකියාව පිළිබද විස්තර'!#REF!</xm:f>
+            <xm:f>'C:\wamp64314\www\add_employee\upload\[Form_for_hrms_changes (2) Tariff.xlsx]5.රැකියාව පිළිබද විස්තර'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J6 P4:P6 R5:R6 T4:T6 N5 D4:D6</xm:sqref>
         </x14:dataValidation>
@@ -3914,158 +3914,158 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:17" ht="15.75">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="151" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="151"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+    </row>
+    <row r="3" spans="1:17" ht="39.75" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-    </row>
-    <row r="3" spans="1:17" ht="39.75" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="K3" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="O3" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="4" spans="1:17" ht="60">
-      <c r="A4" s="92" t="str">
+      <c r="A4" s="81" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B4</f>
         <v>591480316V</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="100" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="114" t="s">
+      <c r="G4" s="102"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="115" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="92" t="str">
+      <c r="A5" s="81" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B5</f>
         <v>865371802V</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="96"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4087,165 +4087,165 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
     </row>
     <row r="2" spans="1:20" ht="15.75">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="104" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="72" customFormat="1" ht="42" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="106" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="83" customFormat="1" ht="42" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="118" t="s">
+      <c r="D3" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="E3" s="106" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="F3" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="G3" s="106" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="106" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="M3" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="118" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" s="119" t="s">
+      <c r="O3" s="106" t="s">
+        <v>187</v>
+      </c>
+      <c r="P3" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q3" s="106" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="I3" s="119" t="s">
-        <v>191</v>
-      </c>
-      <c r="J3" s="118" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="L3" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="M3" s="119" t="s">
-        <v>191</v>
-      </c>
-      <c r="N3" s="118" t="s">
-        <v>193</v>
-      </c>
-      <c r="O3" s="119" t="s">
-        <v>189</v>
-      </c>
-      <c r="P3" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q3" s="119" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="120" t="str">
+      <c r="A4" s="107" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B4</f>
         <v>591480316V</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="122">
+      <c r="B4" s="108"/>
+      <c r="C4" s="109">
         <v>1</v>
       </c>
-      <c r="D4" s="122">
+      <c r="D4" s="109">
         <v>1</v>
       </c>
-      <c r="E4" s="122">
+      <c r="E4" s="109">
         <v>1</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122">
+      <c r="F4" s="108"/>
+      <c r="G4" s="109">
         <v>1</v>
       </c>
-      <c r="H4" s="122">
+      <c r="H4" s="109">
         <v>1</v>
       </c>
-      <c r="I4" s="122">
+      <c r="I4" s="109">
         <v>1</v>
       </c>
-      <c r="J4" s="121"/>
-      <c r="K4" s="122">
+      <c r="J4" s="108"/>
+      <c r="K4" s="109">
         <v>0</v>
       </c>
-      <c r="L4" s="122">
+      <c r="L4" s="109">
         <v>0</v>
       </c>
-      <c r="M4" s="122">
+      <c r="M4" s="109">
         <v>0</v>
       </c>
-      <c r="N4" s="121"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
       <c r="S4">
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="120" t="str">
+      <c r="A5" s="107" t="str">
         <f>'[1]1. පෞද්ගලික තොරතුරු'!B5</f>
         <v>865371802V</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="122">
+      <c r="B5" s="108"/>
+      <c r="C5" s="109">
         <v>1</v>
       </c>
-      <c r="D5" s="122">
+      <c r="D5" s="109">
         <v>1</v>
       </c>
-      <c r="E5" s="122">
+      <c r="E5" s="109">
         <v>1</v>
       </c>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122">
+      <c r="F5" s="108"/>
+      <c r="G5" s="109">
         <v>1</v>
       </c>
-      <c r="H5" s="122">
+      <c r="H5" s="109">
         <v>1</v>
       </c>
-      <c r="I5" s="122">
+      <c r="I5" s="109">
         <v>1</v>
       </c>
-      <c r="J5" s="121"/>
-      <c r="K5" s="122">
+      <c r="J5" s="108"/>
+      <c r="K5" s="109">
         <v>1</v>
       </c>
-      <c r="L5" s="122">
+      <c r="L5" s="109">
         <v>1</v>
       </c>
-      <c r="M5" s="122">
+      <c r="M5" s="109">
         <v>1</v>
       </c>
-      <c r="N5" s="121"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
       <c r="S5">
         <v>0</v>
       </c>
@@ -4254,23 +4254,23 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="123"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="1">
